--- a/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F618639D-693C-4283-9C86-1AEF09ACA0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA7DE4C-00A8-459F-B6BF-0D24E4DAED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F9732136-D39E-4B7A-B5B7-6DF6643EC2BA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{990FFA55-2063-4A49-A955-71540E5E0844}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,36 +67,90 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -106,37 +160,25 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -172,48 +214,6 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -259,6 +259,48 @@
     <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -289,28 +331,28 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -337,48 +379,6 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -418,16 +418,40 @@
     <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -452,30 +476,6 @@
   </si>
   <si>
     <t>0,33%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>99,35%</t>
@@ -873,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2824AB32-DA2E-4841-B699-3E63CA0C41BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E8295E-4D07-4641-8EC2-B234BBA66163}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,10 +1006,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1021,10 +1021,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1093,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1108,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1123,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1301,49 +1301,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>206423</v>
+        <v>212142</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>312</v>
+      </c>
+      <c r="I10" s="7">
+        <v>195163</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>634</v>
+      </c>
+      <c r="N10" s="7">
+        <v>407305</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>578</v>
-      </c>
-      <c r="N10" s="7">
-        <v>415738</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,19 +1352,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1379,22 +1379,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1418,10 +1418,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1433,10 +1433,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1450,52 +1450,52 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1519,7 +1519,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1573,10 +1573,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1588,10 +1588,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1605,55 +1605,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>206423</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209315</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>578</v>
+      </c>
+      <c r="N16" s="7">
+        <v>415738</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>229</v>
-      </c>
-      <c r="I16" s="7">
-        <v>137817</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>461</v>
-      </c>
-      <c r="N16" s="7">
-        <v>287474</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,19 +1662,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1401</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>57</v>
@@ -1713,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1728,10 +1728,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1743,10 +1743,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1931,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD8217C-C983-409A-AB36-05DCF49B73B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3572F1-A6DF-4D4D-9D23-F2BDE982C860}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2049,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2064,34 +2064,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>204918</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>637</v>
-      </c>
-      <c r="N4" s="7">
-        <v>426896</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,37 +2112,37 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>480</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>480</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2166,10 +2166,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2181,10 +2181,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2210,10 +2210,10 @@
         <v>126956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2228,7 +2228,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2243,7 +2243,7 @@
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2261,13 +2261,13 @@
         <v>687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,46 +2359,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>206335</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>316</v>
+      </c>
+      <c r="I10" s="7">
+        <v>204918</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>637</v>
+      </c>
+      <c r="N10" s="7">
+        <v>426896</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>275</v>
-      </c>
-      <c r="I10" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>555</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416635</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2410,49 +2410,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>747</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>747</v>
+        <v>480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2476,10 +2476,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2491,10 +2491,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2508,55 +2508,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>241</v>
+      </c>
+      <c r="I13" s="7">
+        <v>154839</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>495</v>
+      </c>
+      <c r="N13" s="7">
+        <v>320217</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47828</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,16 +2565,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>102</v>
@@ -2595,16 +2595,16 @@
         <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>104</v>
@@ -2616,10 +2616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2631,10 +2631,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2646,10 +2646,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2663,16 +2663,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>165378</v>
+        <v>206335</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -2684,28 +2684,28 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>555</v>
+      </c>
+      <c r="N16" s="7">
+        <v>416635</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>495</v>
-      </c>
-      <c r="N16" s="7">
-        <v>320217</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>108</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>607</v>
+        <v>747</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>109</v>
@@ -2747,16 +2747,16 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>607</v>
+        <v>747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
@@ -2771,10 +2771,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2786,10 +2786,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2801,10 +2801,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2848,7 +2848,7 @@
         <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2902,7 +2902,7 @@
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2989,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBC5244-4569-4FCA-B7B1-C9DB6CA16475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C92BEB-097C-4AC2-90AD-51F770AF305E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,10 +3107,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3122,31 +3122,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3170,7 +3170,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3224,10 +3224,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3239,10 +3239,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3286,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3301,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3325,7 +3325,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,49 +3417,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>204372</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>666</v>
       </c>
       <c r="N10" s="7">
-        <v>411792</v>
+        <v>431606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,19 +3468,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1364</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3495,22 +3495,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1364</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3534,10 +3534,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3549,10 +3549,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3566,52 +3566,52 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3635,7 +3635,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,10 +3674,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3689,10 +3689,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3704,10 +3704,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3721,55 +3721,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>204372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>411792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,19 +3778,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3808,19 +3808,19 @@
         <v>144</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,10 +3829,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3844,10 +3844,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3859,10 +3859,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3888,7 +3888,7 @@
         <v>743480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>146</v>
@@ -3906,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3921,7 +3921,7 @@
         <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3939,7 +3939,7 @@
         <v>1364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -3960,7 +3960,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3975,7 +3975,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA7DE4C-00A8-459F-B6BF-0D24E4DAED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9298CC4F-57C6-4423-98D6-3057F49FEEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{990FFA55-2063-4A49-A955-71540E5E0844}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49D6DCD5-BECA-424A-8BD2-C58B54FE0813}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="145">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -121,27 +136,21 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
@@ -151,18 +160,18 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
@@ -172,22 +181,28 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>97,63%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -199,19 +214,25 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -229,36 +250,27 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,6%</t>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>93,43%</t>
   </si>
   <si>
@@ -268,37 +280,40 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -307,157 +322,142 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
     <t>99,89%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,7%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -466,22 +466,13 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
 </sst>
 </file>
@@ -492,7 +483,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,39 +579,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -672,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -783,13 +774,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -798,6 +782,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -862,19 +853,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E8295E-4D07-4641-8EC2-B234BBA66163}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D23C4-5CAD-4883-BB21-9A68E171F974}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -991,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,34 +1017,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1042,10 +1053,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1057,34 +1068,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1099,13 +1110,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1114,13 +1125,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1129,13 +1140,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1146,49 +1157,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126960</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242962</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1197,49 +1208,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>126960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>673</v>
+        <v>242962</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,13 +1265,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1269,13 +1280,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1284,13 +1295,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,49 +1312,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>212142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>195163</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>407305</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,49 +1363,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>212142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>195163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>407305</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,13 +1420,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1424,13 +1435,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1439,13 +1450,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,49 +1467,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,49 +1518,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>287474</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,13 +1575,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1579,13 +1590,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1594,13 +1605,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,49 +1622,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>206423</v>
+        <v>1401</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>578</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>415738</v>
+        <v>1401</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,49 +1673,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="D17" s="7">
-        <v>1401</v>
+        <v>206423</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>578</v>
       </c>
       <c r="N17" s="7">
-        <v>1401</v>
+        <v>415738</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1730,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1734,13 +1745,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1749,13 +1760,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1083</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>720626</v>
+        <v>2074</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>58</v>
@@ -1781,25 +1792,25 @@
         <v>60</v>
       </c>
       <c r="H19" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>681021</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M19" s="7">
-        <v>2101</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1401647</v>
+        <v>2074</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>62</v>
@@ -1817,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="7">
-        <v>2074</v>
+        <v>720626</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>65</v>
@@ -1832,25 +1843,25 @@
         <v>67</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>681021</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2101</v>
       </c>
       <c r="N20" s="7">
-        <v>2074</v>
+        <v>1401647</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>69</v>
@@ -1874,13 +1885,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1889,13 +1900,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1904,13 +1915,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1931,8 +1947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3572F1-A6DF-4D4D-9D23-F2BDE982C860}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0892401-E4F5-4F1C-9453-C252C33C3FEA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1948,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2049,49 +2065,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +2116,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2173,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2172,13 +2188,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2187,13 +2203,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,49 +2220,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126956</v>
+        <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>240974</v>
+        <v>687</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,49 +2271,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>687</v>
+        <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="N8" s="7">
-        <v>687</v>
+        <v>240974</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2328,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2327,13 +2343,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2342,13 +2358,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,49 +2375,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>204918</v>
+        <v>480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>637</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>426896</v>
+        <v>480</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,49 +2426,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>480</v>
+        <v>204918</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>637</v>
+      </c>
+      <c r="N11" s="7">
+        <v>426896</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>480</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,16 +2480,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2482,13 +2498,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2497,13 +2513,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,49 +2530,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>165378</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>241</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>495</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>320217</v>
+        <v>607</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,49 +2581,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>607</v>
+        <v>165378</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>241</v>
+      </c>
+      <c r="I14" s="7">
+        <v>154839</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="N14" s="7">
-        <v>607</v>
+        <v>320217</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2638,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2637,13 +2653,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2652,13 +2668,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,49 +2685,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>206335</v>
+        <v>747</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>747</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>275</v>
-      </c>
-      <c r="I16" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>555</v>
-      </c>
-      <c r="N16" s="7">
-        <v>416635</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,49 +2736,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7">
-        <v>747</v>
+        <v>206335</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>275</v>
+      </c>
+      <c r="I17" s="7">
+        <v>210300</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>555</v>
+      </c>
+      <c r="N17" s="7">
+        <v>416635</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>747</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2793,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2792,13 +2808,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2807,13 +2823,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,49 +2840,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1063</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>746101</v>
+        <v>2041</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>480</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2521</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I19" s="7">
-        <v>706448</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1452549</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,49 +2891,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1063</v>
       </c>
       <c r="D20" s="7">
-        <v>2041</v>
+        <v>746101</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I20" s="7">
+        <v>706448</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2080</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1452549</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>480</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2521</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2948,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2947,13 +2963,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2962,13 +2978,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2989,8 +3010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C92BEB-097C-4AC2-90AD-51F770AF305E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264C266-8D2D-46AA-8A62-3C47F15C3B80}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3006,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3107,49 +3128,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3179,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3236,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3230,13 +3251,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3245,13 +3266,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,49 +3283,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3334,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>233682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3391,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3385,13 +3406,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3400,13 +3421,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>431606</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,49 +3489,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3546,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3540,13 +3561,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3555,13 +3576,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,49 +3644,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>322670</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3701,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3695,13 +3716,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3710,13 +3731,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,49 +3748,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>204372</v>
+        <v>1364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
-        <v>569</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>411792</v>
+        <v>1364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,49 +3799,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7">
-        <v>1364</v>
+        <v>204372</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>281</v>
+      </c>
+      <c r="I17" s="7">
+        <v>207420</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>569</v>
+      </c>
+      <c r="N17" s="7">
+        <v>411792</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1364</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3856,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3850,13 +3871,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3865,13 +3886,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,49 +3903,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1063</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>743480</v>
+        <v>1364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>2124</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1447851</v>
+        <v>1364</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,49 +3954,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1063</v>
       </c>
       <c r="D20" s="7">
-        <v>1364</v>
+        <v>743480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>704371</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>2124</v>
       </c>
       <c r="N20" s="7">
-        <v>1364</v>
+        <v>1447851</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +4011,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4005,13 +4026,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4020,13 +4041,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9298CC4F-57C6-4423-98D6-3057F49FEEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4549E8C-D99B-4750-8713-F07EDBCF3DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49D6DCD5-BECA-424A-8BD2-C58B54FE0813}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A137439A-B754-497E-B598-70BE53EE4B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="151">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -127,7 +127,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -139,7 +139,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -160,7 +160,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -196,253 +196,277 @@
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -451,13 +475,13 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,7%</t>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -466,13 +490,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>98,92%</t>
   </si>
 </sst>
 </file>
@@ -884,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D23C4-5CAD-4883-BB21-9A68E171F974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81945999-61BB-4D74-89EC-9AF5B949C8B3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0892401-E4F5-4F1C-9453-C252C33C3FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82201975-57C9-4716-95D1-A7D840EA31E8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2429,7 +2447,7 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2480,7 +2498,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2727,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,10 +2760,10 @@
         <v>206335</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2772,10 +2790,10 @@
         <v>416635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2846,13 +2864,13 @@
         <v>2041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2861,13 +2879,13 @@
         <v>480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2876,13 +2894,13 @@
         <v>2521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2915,13 @@
         <v>746101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>1017</v>
@@ -2912,10 +2930,10 @@
         <v>706448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -2927,10 +2945,10 @@
         <v>1452549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>71</v>
@@ -3010,7 +3028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264C266-8D2D-46AA-8A62-3C47F15C3B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C501D9C-9A4B-4226-9325-A9602CAB9A48}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,7 +3045,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3140,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3155,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3188,7 +3206,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3203,7 +3221,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3295,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3310,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3325,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3361,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3358,7 +3376,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3373,7 +3391,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3450,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3465,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3498,7 +3516,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3513,7 +3531,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3605,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3620,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3635,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,7 +3671,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3668,7 +3686,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3683,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3754,13 +3772,13 @@
         <v>1364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3775,7 +3793,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3784,13 +3802,13 @@
         <v>1364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,10 +3823,10 @@
         <v>204372</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3823,7 +3841,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3835,10 +3853,10 @@
         <v>411792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3915,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3945,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3978,10 @@
         <v>743480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3978,7 +3996,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -3993,7 +4011,7 @@
         <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>

--- a/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4549E8C-D99B-4750-8713-F07EDBCF3DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26426CB7-0E63-4232-8026-23306B1DD402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A137439A-B754-497E-B598-70BE53EE4B2A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05445310-6A41-4E01-A23A-8B14E8B90182}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="132">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,403 +100,340 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>99,39%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
 </sst>
 </file>
@@ -902,8 +845,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81945999-61BB-4D74-89EC-9AF5B949C8B3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A661E-BBF3-4A71-8275-8B1AB5D298E9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1035,82 +978,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1122,72 +1065,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1202,73 +1145,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7">
-        <v>126960</v>
+        <v>195163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>634</v>
       </c>
       <c r="N8" s="7">
-        <v>242962</v>
+        <v>407305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1277,49 +1220,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,52 +1321,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,49 +1375,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,82 +1443,82 @@
         <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>206423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>578</v>
       </c>
       <c r="N14" s="7">
-        <v>287474</v>
+        <v>415738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1587,153 +1530,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1401</v>
+        <v>2074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>304</v>
+        <v>1018</v>
       </c>
       <c r="D17" s="7">
-        <v>206423</v>
+        <v>681021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>720626</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
-        <v>578</v>
+        <v>2101</v>
       </c>
       <c r="N17" s="7">
-        <v>415738</v>
+        <v>1401647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,217 +1685,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2074</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2074</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>720626</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I20" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2101</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1401647</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1965,8 +1752,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82201975-57C9-4716-95D1-A7D840EA31E8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FA23E2-3009-4D85-BE99-A94172FEED2C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1982,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2095,85 +1882,85 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>152411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>288802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2185,54 +1972,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2241,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>687</v>
+        <v>480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2265,73 +2052,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>687</v>
+        <v>480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>126956</v>
+        <v>204918</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>339</v>
+        <v>637</v>
       </c>
       <c r="N8" s="7">
-        <v>240974</v>
+        <v>426896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2127,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,88 +2192,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>480</v>
+        <v>607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>480</v>
+        <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>204918</v>
+        <v>165378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>426896</v>
+        <v>320217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,49 +2282,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,100 +2335,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>607</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>607</v>
+        <v>747</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165378</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>206335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="N14" s="7">
-        <v>320217</v>
+        <v>416635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,54 +2437,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2706,97 +2493,97 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>747</v>
+        <v>480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>747</v>
+        <v>2521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>280</v>
+        <v>1017</v>
       </c>
       <c r="D17" s="7">
-        <v>206335</v>
+        <v>706448</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="I17" s="7">
+        <v>746101</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2080</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1452549</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>275</v>
-      </c>
-      <c r="I17" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="7">
-        <v>555</v>
-      </c>
-      <c r="N17" s="7">
-        <v>416635</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,217 +2592,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2041</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>480</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2521</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D20" s="7">
-        <v>746101</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I20" s="7">
-        <v>706448</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1452549</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3028,8 +2659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C501D9C-9A4B-4226-9325-A9602CAB9A48}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E0061-E1CF-4E77-9C68-47D24231DC49}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3045,7 +2676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3158,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3173,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3188,58 +2819,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,54 +2879,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3313,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3328,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3343,58 +2974,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3034,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3483,7 +3114,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3498,58 +3129,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,49 +3189,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,85 +3254,85 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>204372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>411792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3713,87 +3344,87 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1364</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3802,64 +3433,64 @@
         <v>1364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>288</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="7">
-        <v>204372</v>
+        <v>704371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1063</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>743480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>569</v>
+        <v>2124</v>
       </c>
       <c r="N17" s="7">
-        <v>411792</v>
+        <v>1447851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,217 +3499,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1364</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1364</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D20" s="7">
-        <v>743480</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2124</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1447851</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
